--- a/data/450_P_label_case.xlsx
+++ b/data/450_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,190 +1382,6 @@
         <v>0.001246791746763066</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>0.80819</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.001144166298144751</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>0.81702</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.001047036054955771</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>0.82586</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0009548592312366367</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>0.8347</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.0008668483010332859</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>0.84354</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.0007824031218067851</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>0.8524299999999999</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.0007003005984199565</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>0.8613299999999999</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.0006204570135297084</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>0.8702299999999999</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.0005435153881548543</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>0.87913</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.0004700439964551146</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>0.88802</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.0004006650237391067</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0.8969600000000001</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.0003360354213773672</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>0.9059</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.0002769503230365193</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0.91484</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0002231597451492272</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>0.9148500000000001</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.0002231854111587372</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>0.92379</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.0001744554874616821</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>0.9327299999999999</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.0001309920987777073</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0.9416899999999999</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9.320911549040196e-05</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0.9506600000000001</v>
-      </c>
-      <c r="B136" t="n">
-        <v>6.200733765114019e-05</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0.9596299999999999</v>
-      </c>
-      <c r="B137" t="n">
-        <v>3.737350054262322e-05</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0.96859</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.904255218270755e-05</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0.97756</v>
-      </c>
-      <c r="B139" t="n">
-        <v>6.688916626851453e-06</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>0.98654</v>
-      </c>
-      <c r="B140" t="n">
-        <v>-1.672734022730533e-07</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>0.99551</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-1.760619321414325e-06</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
